--- a/cours2/H2O_Tables/abaques.xlsx
+++ b/cours2/H2O_Tables/abaques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="15600" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="courbes_val" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
   <si>
     <t>rho (kg/m3)</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>155 bars</t>
+  </si>
+  <si>
+    <t>pcm</t>
   </si>
 </sst>
 </file>
@@ -70,8 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1596,11 +1602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101310464"/>
-        <c:axId val="101312384"/>
+        <c:axId val="95162368"/>
+        <c:axId val="95164672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101310464"/>
+        <c:axId val="95162368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,12 +1631,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101312384"/>
+        <c:crossAx val="95164672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101312384"/>
+        <c:axId val="95164672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -1668,7 +1674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101310464"/>
+        <c:crossAx val="95162368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2468,11 +2474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64262912"/>
-        <c:axId val="64265216"/>
+        <c:axId val="110094592"/>
+        <c:axId val="126563840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64262912"/>
+        <c:axId val="110094592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,12 +2503,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64265216"/>
+        <c:crossAx val="126563840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64265216"/>
+        <c:axId val="126563840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -2540,7 +2546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64262912"/>
+        <c:crossAx val="110094592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2578,7 +2584,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10844213280679364"/>
+          <c:y val="4.1177640449536639E-2"/>
+          <c:w val="0.71109907133167982"/>
+          <c:h val="0.78726297274400103"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2840,17 +2856,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="63512960"/>
-        <c:axId val="63514880"/>
+        <c:axId val="127675776"/>
+        <c:axId val="137926144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63512960"/>
+        <c:axId val="127675776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:strRef>
@@ -2870,12 +2887,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63514880"/>
+        <c:crossAx val="137926144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63514880"/>
+        <c:axId val="137926144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="850"/>
@@ -2883,7 +2901,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:strRef>
@@ -2913,9 +2931,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63512960"/>
+        <c:crossAx val="127675776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3213,11 +3233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104655488"/>
-        <c:axId val="104674048"/>
+        <c:axId val="71573504"/>
+        <c:axId val="71575424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104655488"/>
+        <c:axId val="71573504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3241,12 +3261,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104674048"/>
+        <c:crossAx val="71575424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104674048"/>
+        <c:axId val="71575424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104655488"/>
+        <c:crossAx val="71573504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3580,11 +3600,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104760832"/>
-        <c:axId val="104762752"/>
+        <c:axId val="72682112"/>
+        <c:axId val="72700672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104760832"/>
+        <c:axId val="72682112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3608,12 +3628,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104762752"/>
+        <c:crossAx val="72700672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104762752"/>
+        <c:axId val="72700672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,7 +3668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104760832"/>
+        <c:crossAx val="72682112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3947,11 +3967,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105980288"/>
-        <c:axId val="105982208"/>
+        <c:axId val="72759168"/>
+        <c:axId val="72773632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105980288"/>
+        <c:axId val="72759168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,12 +3995,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105982208"/>
+        <c:crossAx val="72773632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105982208"/>
+        <c:axId val="72773632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105980288"/>
+        <c:crossAx val="72759168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4314,11 +4334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107368832"/>
-        <c:axId val="107370752"/>
+        <c:axId val="95191808"/>
+        <c:axId val="95193728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107368832"/>
+        <c:axId val="95191808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4342,12 +4362,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107370752"/>
+        <c:crossAx val="95193728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107370752"/>
+        <c:axId val="95193728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,7 +4402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107368832"/>
+        <c:crossAx val="95191808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5913,11 +5933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107481344"/>
-        <c:axId val="107487616"/>
+        <c:axId val="109973504"/>
+        <c:axId val="109975424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107481344"/>
+        <c:axId val="109973504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5941,12 +5961,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107487616"/>
+        <c:crossAx val="109975424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107487616"/>
+        <c:axId val="109975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -5983,7 +6003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107481344"/>
+        <c:crossAx val="109973504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6282,11 +6302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="107573632"/>
-        <c:axId val="107575552"/>
+        <c:axId val="110536576"/>
+        <c:axId val="110538752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107573632"/>
+        <c:axId val="110536576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6310,12 +6330,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107575552"/>
+        <c:crossAx val="110538752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107575552"/>
+        <c:axId val="110538752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6350,7 +6370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107573632"/>
+        <c:crossAx val="110536576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6467,6 +6487,624 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542192</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>747346</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10448192" y="8689731"/>
+          <a:ext cx="4015154" cy="7327"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur droit 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13137173" y="8382000"/>
+          <a:ext cx="7328" cy="1817077"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>505558</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>511421</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur droit 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12697558" y="8154865"/>
+          <a:ext cx="5863" cy="1808285"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>634514</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>644769</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>26377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connecteur droit 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13588514" y="8125558"/>
+          <a:ext cx="10255" cy="1806819"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556846</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>183174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>681404</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10462846" y="8946174"/>
+          <a:ext cx="3172558" cy="25381"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>564173</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>70340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>524609</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connecteur droit 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10470173" y="8452340"/>
+          <a:ext cx="2246436" cy="2930"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>688731</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10484827" y="8235461"/>
+          <a:ext cx="871904" cy="249116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>730 kg/m3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599343</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>174382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>709247</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10505343" y="8746882"/>
+          <a:ext cx="871904" cy="249116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>685 kg/m3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>597877</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>99647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>707781</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="ZoneTexte 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10503877" y="8481647"/>
+          <a:ext cx="871904" cy="249116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>710 kg/m3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>150936</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>128956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>260840</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>187572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="ZoneTexte 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13104936" y="9653956"/>
+          <a:ext cx="871904" cy="249116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>308°C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>633048</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>742952</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>186107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13587048" y="9652491"/>
+          <a:ext cx="871904" cy="249116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>318°C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>433755</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>140681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543659</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>8797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="ZoneTexte 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12625755" y="9665681"/>
+          <a:ext cx="871904" cy="249116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>298°C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7003,10 +7641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" topLeftCell="M37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37:V57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7410,6 +8048,54 @@
       </c>
       <c r="C37">
         <v>615.54127076900568</v>
+      </c>
+    </row>
+    <row r="49" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <f>1.0118</f>
+        <v>1.0118</v>
+      </c>
+    </row>
+    <row r="50" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M50" s="1"/>
+      <c r="W50">
+        <f>W49-1</f>
+        <v>1.1800000000000033E-2</v>
+      </c>
+      <c r="X50">
+        <f>W50*100000</f>
+        <v>1180.0000000000032</v>
+      </c>
+    </row>
+    <row r="51" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <f>W50/(0.02)</f>
+        <v>0.59000000000000163</v>
+      </c>
+    </row>
+    <row r="53" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>1.0109999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>0.98129999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <f>(W53-W54)/(W53*W54)*100000</f>
+        <v>2993.6670334664709</v>
+      </c>
+      <c r="X55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <f>W55/20</f>
+        <v>149.68335167332356</v>
       </c>
     </row>
   </sheetData>
